--- a/csv_files/city_files_summary.xlsx
+++ b/csv_files/city_files_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>delhi_cars</t>
+          <t>city_files_summary</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -549,30 +549,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.56 MB</t>
+          <t>0.01 MB</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1485</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['new_car_detail', 'new_car_overview', 'new_car_feature', 'new_car_specs', 'car_links']</t>
+          <t>['City', 'File_Type', 'File_Size', 'Rows', 'Columns', 'Columns_List', 'Sample_First_Row']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'new_car_detail': "{'it': 0, 'ft': 'Diesel', 'bt': 'SUV', 'km': '10,000', 'transmission': 'Automatic', 'ownerNo': 1, 'owner': '1st Owner', 'oem': 'Kia', 'model': 'Kia Seltos', 'modelYear': 2022, 'centralVariantId': 7121, 'variantName': 'GTX Plus Diesel AT', 'price': '₹ 19 Lakh', 'priceActual': '', 'priceSaving': '', 'priceFixedText': None, 'trendingText': {'imgUrl': 'https://stimg.cardekho.com/used-cars/common/icons/trending.svg', 'heading': 'Trending Car!', 'desc': 'High chances of sale in next 6 days'}}", 'new_car_overview': "{'heading': 'Car overview', 'top': [{'key': 'Registration Year', 'value': '2022', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg'}, {'key': 'Insurance Validity', 'value': 'Third Party insurance', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg'}, {'key': 'Fuel Type', 'value': 'Diesel', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg'}, {'key': 'Seats', 'value': '5 Seats', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg'}, {'key': 'Kms Driven', 'value': '10,000 Kms', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg'}, {'key': 'Ownership', 'value': 'First Owner', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg'}, {'key': 'Engine Displacement', 'value': '1493 cc', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg'}, {'key': 'Transmission', 'value': 'Automatic', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg'}, {'key': 'Year of Manufacture', 'value': 2022, 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg'}], 'bottomData': None}", 'new_car_feature': "{'heading': 'Features', 'top': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Anti Lock Braking System'}, {'value': 'Brake Assist'}, {'value': 'Radio'}], 'data': [{'heading': 'Comfort &amp; Convenience', 'subHeading': 'Comfort', 'list': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Power Windows Rear'}, {'value': 'Air Quality Control'}, {'value': 'Low Fuel Warning Light'}, {'value': 'Accessory Power Outlet'}, {'value': 'Trunk Light'}, {'value': 'Rear Reading Lamp'}, {'value': 'Rear Seat Headrest'}, {'value': 'Rear Seat Centre Arm Rest'}, {'value': 'Height Adjustable Front Seat Belts'}, {'value': 'Cup Holders Rear'}, {'value': 'Seat Lumbar Support'}, {'value': 'Multifunction Steering Wheel'}, {'value': 'Cruise Control'}, {'value': 'Rear ACVents'}, {'value': 'Navigation System'}, {'value': 'Smart Access Card Entry'}, {'value': 'Engine Start Stop Button'}, {'value': 'Voice Control'}, {'value': 'Steering Wheel Gearshift Paddles'}, {'value': 'Drive Modes'}, {'value': 'Remote Engine Start Stop'}, {'value': 'Adjustable Headrest'}]}, {'heading': 'Interior', 'subHeading': 'Interior', 'list': [{'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Steering'}, {'value': 'Digital Odometer'}, {'value': 'Tachometer'}, {'value': 'Electronic Multi Tripmeter'}, {'value': 'Leather Seats'}, {'value': 'Leather Steering Wheel'}, {'value': 'Glove Compartment'}, {'value': 'Digital Clock'}, {'value': 'Driving Experience Control Eco'}, {'value': 'Height Adjustable Driver Seat'}, {'value': 'Ventilated Seats'}, {'value': 'Leather Wrap Gear Shift Selector'}]}, {'heading': 'Exterior', 'subHeading': 'Exterior', 'list': [{'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Power Adjustable Exterior Rear View Mirror'}, {'value': 'Electric Folding Rear View Mirror'}, {'value': 'Rain Sensing Wiper'}, {'value': 'Rear Window Wiper'}, {'value': 'Rear Window Washer'}, {'value': 'Rear Window Defogger'}, {'value': 'Alloy Wheels'}, {'value': 'Integrated Antenna'}, {'value': 'Rear Spoiler'}, {'value': 'Sun Roof'}, {'value': 'Moon Roof'}, {'value': 'Outside Rear View Mirror Turn Indicators'}, {'value': 'Chrome Garnish'}, {'value': 'Roof Rail'}, {'value': 'LEDDRLs'}, {'value': 'LEDHeadlights'}, {'value': 'LEDTaillights'}, {'value': 'LEDFog Lamps'}]}, {'heading': 'Safety', 'subHeading': 'Safety', 'list': [{'value': 'Anti Lock Braking System'}, {'value': 'Brake Assist'}, {'value': 'Centeral Locking'}, {'value': 'Power Door Locks'}, {'value': 'Child Safety Locks'}, {'value': 'Driver Air Bag'}, {'value': 'Passenger Air Bag'}, {'value': 'Side Air Bag Front'}, {'value': 'Day Night Rear View Mirror'}, {'value': 'Passenger Side Rear View Mirror'}, {'value': 'Rear Seat Belts'}, {'value': 'Seat Belt Warning'}, {'value': 'Vehicle Stability Control System'}, {'value': 'Traction Control'}, {'value': 'Adjustable Seats'}, {'value': 'Keyless Entry'}, {'value': 'Engine Immobilizer'}, {'value': 'Engine Check Warning'}, {'value': 'Tyre Pressure Monitor'}, {'value': 'Crash Sensor'}, {'value': 'Automatic Head Lamps'}, {'value': 'Ebd'}, {'value': 'Follow Me Home Headlamps'}, {'value': 'Rear Camera'}, {'value': 'Anti Pinch Power Windows'}, {'value': 'Speed Sensing Auto Door Lock'}, {'value': 'Isofix Child Seat Mounts'}, {'value': 'Heads Up Display'}, {'value': 'Pretensioners And Force Limiter Seatbelts'}, {'value': 'Blind Spot Monitor'}, {'value': 'Hill Assist'}, {'value': 'View360Camera'}, {'value': 'No Of Airbags'}, {'value': 'Eletronic Stability Control'}]}, {'heading': 'Entertainment &amp; Communication', 'subHeading': 'Entertainment', 'list': [{'value': 'Radio'}, {'value': 'Speakers Front'}, {'value': 'Speakers Rear'}, {'value': 'Integrated2Din Audio'}, {'value': 'Bluetooth'}, {'value': 'Touch Screen'}, {'value': 'Number Of Speaker'}, {'value': 'Touch Screen Size'}, {'value': 'Apple Car Play'}, {'value': 'Android Auto'}, {'value': 'Wireless Phone Charging'}]}], 'commonIcon': 'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg'}", 'new_car_specs': "{'heading': 'Specifications', 'top': [{'key': 'Mileage', 'value': '18 kmpl'}, {'key': 'Engine', 'value': '1493 CC'}, {'key': 'Max Power', 'value': '113.43bhp'}, {'key': 'Torque', 'value': '250Nm'}, {'key': 'Wheel Size', 'value': '17'}, {'key': 'Seats', 'value': '5'}], 'data': [{'heading': 'Engine and Transmission', 'subHeading': 'Engine', 'list': [{'key': 'Color', 'value': 'Gray'}, {'key': 'Engine Type', 'value': '1.5 L CRDi VGT'}, {'key': 'Displacement', 'value': '1493'}, {'key': 'Max Power', 'value': '113.43bhp@4000rpm'}, {'key': 'Max Torque', 'value': '250Nm@1500-2750rpm'}, {'key': 'No of Cylinder', 'value': 4}, {'key': 'Values per Cylinder', 'value': 4}, {'key': 'Fuel Suppy System', 'value': 'CRDi'}, {'key': 'Turbo Charger', 'value': 'Yes'}]}, {'heading': 'Dimensions &amp; Capacity', 'subHeading': 'Dimensions', 'list': [{'key': 'Length', 'value': '4315mm'}, {'key': 'Width', 'value': '1800mm'}, {'key': 'Height', 'value': '1645mm'}, {'key': 'Wheel Base', 'value': '2610mm'}, {'key': 'Kerb Weight', 'value': '1540'}]}, {'heading': 'Miscellaneous', 'subHeading': 'Miscellaneous', 'list': [{'key': 'Gear Box', 'value': '6-Speed'}, {'key': 'Drive Type', 'value': 'FWD'}, {'key': 'Seating Capacity', 'value': '5'}, {'key': 'Steering Type', 'value': 'Electric'}, {'key': 'Front Brake Type', 'value': 'Disc'}, {'key': 'Rear Brake Type', 'value': 'Disc'}, {'key': 'Tyre Type', 'value': 'Tubeless, Radial'}, {'key': 'Alloy Wheel Size', 'value': '17'}, {'key': 'No Door Numbers', 'value': '5'}, {'key': 'Cargo Volumn', 'value': '433'}]}], 'commonIcon': ''}", 'car_links': 'https://www.cardekho.com/used-car-details/used-Kia-Seltos-Gtx-Plus-Diesel-At-cars-Gurgaon_d4aa1aa7-0fbb-4da0-8aad-4644c5a32df8.htm'}</t>
+          <t>{'City': 'bangalore_cars', 'File_Type': 'Excel (XLSX)', 'File_Size': '0.55 MB', 'Rows': 1481, 'Columns': 5, 'Columns_List': "['new_car_detail', 'new_car_overview', 'new_car_feature', 'new_car_specs', 'car_links']", 'Sample_First_Row': '{\'new_car_detail\': "{\'it\': 0, \'ft\': \'Petrol\', \'bt\': \'Hatchback\', \'km\': \'1,20,000\', \'transmission\': \'Manual\', \'ownerNo\': 3, \'owner\': \'3rd Owner\', \'oem\': \'Maruti\', \'model\': \'Maruti Celerio\', \'modelYear\': 2015, \'centralVariantId\': 3979, \'variantName\': \'VXI\', \'price\': \'₹ 4 Lakh\', \'priceActual\': \'\', \'priceSaving\': \'\', \'priceFixedText\': None, \'trendingText\': {\'imgUrl\': \'https://stimg.cardekho.com/used-cars/common/icons/trending.svg\', \'heading\': \'Trending Car!\', \'desc\': \'High chances of sale in next 6 days\'}}", \'new_car_overview\': "{\'heading\': \'Car overview\', \'top\': [{\'key\': \'Registration Year\', \'value\': \'2015\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg\'}, {\'key\': \'Insurance Validity\', \'value\': \'Third Party insurance\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg\'}, {\'key\': \'Fuel Type\', \'value\': \'Petrol\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg\'}, {\'key\': \'Seats\', \'value\': \'5 Seats\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg\'}, {\'key\': \'Kms Driven\', \'value\': \'1,20,000 Kms\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg\'}, {\'key\': \'RTO\', \'value\': \'KA51\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/rto.svg\'}, {\'key\': \'Ownership\', \'value\': \'Third Owner\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg\'}, {\'key\': \'Engine Displacement\', \'value\': \'998 cc\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg\'}, {\'key\': \'Transmission\', \'value\': \'Manual\', \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg\'}, {\'key\': \'Year of Manufacture\', \'value\': 2015, \'icon\': \'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg\'}], \'bottomData\': None}", \'new_car_feature\': "{\'heading\': \'Features\', \'top\': [{\'value\': \'Power Steering\'}, {\'value\': \'Power Windows Front\'}, {\'value\': \'Air Conditioner\'}, {\'value\': \'Heater\'}, {\'value\': \'Adjustable Head Lights\'}, {\'value\': \'Manually Adjustable Exterior Rear View Mirror\'}, {\'value\': \'Centeral Locking\'}, {\'value\': \'Child Safety Locks\'}], \'data\': [{\'heading\': \'Comfort &amp; Convenience\', \'subHeading\': \'Comfort\', \'list\': [{\'value\': \'Power Steering\'}, {\'value\': \'Power Windows Front\'}, {\'value\': \'Power Windows Rear\'}, {\'value\': \'Remote Trunk Opener\'}, {\'value\': \'Remote Fuel Lid Opener\'}, {\'value\': \'Low Fuel Warning Light\'}, {\'value\': \'Accessory Power Outlet\'}, {\'value\': \'Vanity Mirror\'}, {\'value\': \'Rear Seat Headrest\'}, {\'value\': \'Cup Holders Front\'}]}, {\'heading\': \'Interior\', \'subHeading\': \'Interior\', \'list\': [{\'value\': \'Air Conditioner\'}, {\'value\': \'Heater\'}, {\'value\': \'Digital Odometer\'}, {\'value\': \'Electronic Multi Tripmeter\'}, {\'value\': \'Fabric Upholstery\'}, {\'value\': \'Glove Compartment\'}, {\'value\': \'Digital Clock\'}]}, {\'heading\': \'Exterior\', \'subHeading\': \'Exterior\', \'list\': [{\'value\': \'Adjustable Head Lights\'}, {\'value\': \'Manually Adjustable Exterior Rear View Mirror\'}, {\'value\': \'Wheel Covers\'}, {\'value\': \'Power Antenna\'}, {\'value\': \'Chrome Grille\'}]}, {\'heading\': \'Safety\', \'subHeading\': \'Safety\', \'list\': [{\'value\': \'Centeral Locking\'}, {\'value\': \'Child Safety Locks\'}, {\'value\': \'Day Night Rear View Mirror\'}, {\'value\': \'Passenger Side Rear View Mirror\'}, {\'value\': \'Halogen Headlamps\'}, {\'value\': \'Rear Seat Belts\'}, {\'value\': \'Door Ajar Warning\'}, {\'value\': \'Side Impact Beams\'}, {\'value\': \'Front Impact Beams\'}, {\'value\': \'Adjustable Seats\'}, {\'value\': \'Centrally Mounted Fuel Tank\'}, {\'value\': \'Engine Immobilizer\'}, {\'value\': \'Anti Theft Device\'}]}], \'commonIcon\': \'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg\'}", \'new_car_specs\': "{\'heading\': \'Specifications\', \'top\': [{\'key\': \'Mileage\', \'value\': \'23.1 kmpl\'}, {\'key\': \'Engine\', \'value\': \'998 CC\'}, {\'key\': \'Max Power\', \'value\': \'67.04bhp\'}, {\'key\': \'Torque\', \'value\': \'90Nm\'}, {\'key\': \'Seats\', \'value\': \'5\'}], \'data\': [{\'heading\': \'Engine and Transmission\', \'subHeading\': \'Engine\', \'list\': [{\'key\': \'Color\', \'value\': \'White\'}, {\'key\': \'Engine Type\', \'value\': \'K10B Engine\'}, {\'key\': \'Displacement\', \'value\': \'998\'}, {\'key\': \'Max Power\', \'value\': \'67.04bhp@6000rpm\'}, {\'key\': \'Max Torque\', \'value\': \'90Nm@3500rpm\'}, {\'key\': \'No of Cylinder\', \'value\': 3}, {\'key\': \'Values per Cylinder\', \'value\': 4}, {\'key\': \'Value Configuration\', \'value\': \'DOHC\'}, {\'key\': \'Fuel Suppy System\', \'value\': \'MPFi\'}, {\'key\': \'BoreX Stroke\', \'value\': \'73 X 82 mm\'}, {\'key\': \'Compression Ratio\', \'value\': \'11.0:1\'}, {\'key\': \'Turbo Charger\', \'value\': \'No\'}, {\'key\': \'Super Charger\', \'value\': \'No\'}]}, {\'heading\': \'Dimensions &amp; Capacity\', \'subHeading\': \'Dimensions\', \'list\': [{\'key\': \'Length\', \'value\': \'3715mm\'}, {\'key\': \'Width\', \'value\': \'1635mm\'}, {\'key\': \'Height\', \'value\': \'1565mm\'}, {\'key\': \'Wheel Base\', \'value\': \'2425mm\'}, {\'key\': \'Front Tread\', \'value\': \'1420mm\'}, {\'key\': \'Rear Tread\', \'value\': \'1410mm\'}, {\'key\': \'Kerb Weight\', \'value\': \'835kg\'}, {\'key\': \'Gross Weight\', \'value\': \'1250kg\'}]}, {\'heading\': \'Miscellaneous\', \'subHeading\': \'Miscellaneous\', \'list\': [{\'key\': \'Gear Box\', \'value\': \'5 Speed \'}, {\'key\': \'Drive Type\', \'value\': \'FWD\'}, {\'key\': \'Seating Capacity\', \'value\': \'5\'}, {\'key\': \'Steering Type\', \'value\': \'Power\'}, {\'key\': \'Turning Radius\', \'value\': \'4.7 metres\'}, {\'key\': \'Front Brake Type\', \'value\': \'Ventilated Disc\'}, {\'key\': \'Rear Brake Type\', \'value\': \'Drum\'}, {\'key\': \'Top Speed\', \'value\': \'150 Kmph\'}, {\'key\': \'Acceleration\', \'value\': \'15.05 Seconds\'}, {\'key\': \'Tyre Type\', \'value\': \'Tubeless, Radial\'}, {\'key\': \'No Door Numbers\', \'value\': \'5\'}, {\'key\': \'Cargo Volumn\', \'value\': \'235-litres\'}]}], \'commonIcon\': \'\'}", \'car_links\': \'https://www.cardekho.com/used-car-details/used-Maruti-Celerio-Vxi-cars-Bangalore_a12b21b4-e26a-41bf-8f47-7e79a725a246.htm\'}'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hyderabad_cars</t>
+          <t>delhi_cars</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -582,11 +582,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.55 MB</t>
+          <t>0.56 MB</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -598,14 +598,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'new_car_detail': "{'it': 0, 'ft': 'Petrol', 'bt': 'Hatchback', 'km': '20,000', 'transmission': 'Automatic', 'ownerNo': 1, 'owner': '1st Owner', 'oem': 'Volkswagen', 'model': 'Volkswagen Polo', 'modelYear': 2022, 'centralVariantId': 7746, 'variantName': '1.0 TSI Highline Plus AT', 'price': '₹ 10.44 Lakh', 'priceActual': '', 'priceSaving': '', 'priceFixedText': None, 'trendingText': {'imgUrl': 'https://stimg.cardekho.com/used-cars/common/icons/trending.svg', 'heading': 'Trending Car!', 'desc': 'High chances of sale in next 6 days'}}", 'new_car_overview': "{'heading': 'Car overview', 'top': [{'key': 'Registration Year', 'value': '2022', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg'}, {'key': 'Insurance Validity', 'value': 'Third Party insurance', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg'}, {'key': 'Fuel Type', 'value': 'Petrol', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg'}, {'key': 'Seats', 'value': '5 Seats', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg'}, {'key': 'Kms Driven', 'value': '20,000 Kms', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg'}, {'key': 'RTO', 'value': 'TS04', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/rto.svg'}, {'key': 'Ownership', 'value': 'First Owner', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg'}, {'key': 'Engine Displacement', 'value': '999 cc', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg'}, {'key': 'Transmission', 'value': 'Automatic', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg'}, {'key': 'Year of Manufacture', 'value': 2022, 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg'}], 'bottomData': None}", 'new_car_feature': "{'heading': 'Features', 'top': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Radio'}], 'data': [{'heading': 'Comfort &amp; Convenience', 'subHeading': 'Comfort', 'list': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Power Windows Rear'}, {'value': 'Remote Trunk Opener'}, {'value': 'Low Fuel Warning Light'}, {'value': 'Accessory Power Outlet'}, {'value': 'Vanity Mirror'}, {'value': 'Rear Seat Headrest'}, {'value': 'Cup Holders Front'}, {'value': 'Seat Lumbar Support'}, {'value': 'Multifunction Steering Wheel'}, {'value': 'Cruise Control'}, {'value': 'Rear ACVents'}, {'value': 'Glove Box Cooling'}, {'value': 'Voice Control'}, {'value': 'Gear Shift Indicator'}, {'value': 'Lane Change Indicator'}, {'value': 'Adjustable Headrest'}]}, {'heading': 'Interior', 'subHeading': 'Interior', 'list': [{'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Steering'}, {'value': 'Digital Odometer'}, {'value': 'Tachometer'}, {'value': 'Electronic Multi Tripmeter'}, {'value': 'Fabric Upholstery'}, {'value': 'Leather Steering Wheel'}, {'value': 'Glove Compartment'}, {'value': 'Digital Clock'}, {'value': 'Height Adjustable Driver Seat'}, {'value': 'Dual Tone Dashboard'}, {'value': 'Leather Wrap Gear Shift Selector'}]}, {'heading': 'Exterior', 'subHeading': 'Exterior', 'list': [{'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Fog Lights Rear'}, {'value': 'Power Adjustable Exterior Rear View Mirror'}, {'value': 'Electric Folding Rear View Mirror'}, {'value': 'Rain Sensing Wiper'}, {'value': 'Rear Window Wiper'}, {'value': 'Rear Window Washer'}, {'value': 'Rear Window Defogger'}, {'value': 'Alloy Wheels'}, {'value': 'Power Antenna'}, {'value': 'Integrated Antenna'}, {'value': 'Outside Rear View Mirror Turn Indicators'}, {'value': 'Cornering Headlamps'}, {'value': 'Halogen Headlamps'}]}, {'heading': 'Safety', 'subHeading': 'Safety', 'list': [{'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Power Door Locks'}, {'value': 'Child Safety Locks'}, {'value': 'Driver Air Bag'}, {'value': 'Passenger Air Bag'}, {'value': 'Day Night Rear View Mirror'}, {'value': 'Passenger Side Rear View Mirror'}, {'value': 'Halogen Headlamps'}, {'value': 'Rear Seat Belts'}, {'value': 'Seat Belt Warning'}, {'value': 'Side Impact Beams'}, {'value': 'Front Impact Beams'}, {'value': 'Vehicle Stability Control System'}, {'value': 'Adjustable Seats'}, {'value': 'Keyless Entry'}, {'value': 'Centrally Mounted Fuel Tank'}, {'value': 'Engine Immobilizer'}, {'value': 'Engine Check Warning'}, {'value': 'Crash Sensor'}, {'value': 'Ebd'}, {'value': 'Anti Theft Device'}, {'value': 'Anti Pinch Power Windows'}, {'value': 'Speed Sensing Auto Door Lock'}, {'value': 'Isofix Child Seat Mounts'}, {'value': 'Pretensioners And Force Limiter Seatbelts'}, {'value': 'Hill Assist'}, {'value': 'Impact Sensing Auto Door Lock'}, {'value': 'No Of Airbags'}, {'value': 'Eletronic Stability Control'}]}, {'heading': 'Entertainment &amp; Communication', 'subHeading': 'Entertainment', 'list': [{'value': 'Radio'}, {'value': 'Speakers Front'}, {'value': 'Speakers Rear'}, {'value': 'Usb Auxiliary Input'}, {'value': 'Bluetooth'}, {'value': 'Touch Screen'}, {'value': 'Number Of Speaker'}, {'value': 'Apple Car Play'}, {'value': 'Android Auto'}, {'value': 'Mirror Link'}]}], 'commonIcon': 'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg'}", 'new_car_specs': "{'heading': 'Specifications', 'top': [{'key': 'Mileage', 'value': '16.47 kmpl'}, {'key': 'Engine', 'value': '999 CC'}, {'key': 'Max Power', 'value': '108.62bhp'}, {'key': 'Torque', 'value': '175nm'}, {'key': 'Wheel Size', 'value': 'R16'}, {'key': 'Seats', 'value': '5'}], 'data': [{'heading': 'Engine and Transmission', 'subHeading': 'Engine', 'list': [{'key': 'Color', 'value': 'Others'}, {'key': 'Engine Type', 'value': '1.0L TSI Petrol'}, {'key': 'Displacement', 'value': '999'}, {'key': 'Max Power', 'value': '108.62bhp@5000-5500rpm'}, {'key': 'Max Torque', 'value': '175nm@1750-4000rpm'}, {'key': 'No of Cylinder', 'value': 3}, {'key': 'Values per Cylinder', 'value': 4}, {'key': 'Value Configuration', 'value': 'DOHC'}, {'key': 'Fuel Suppy System', 'value': 'TSI'}, {'key': 'BoreX Stroke', 'value': '74.5x76.4 mm'}, {'key': 'Compression Ratio', 'value': '10.5:1'}, {'key': 'Turbo Charger', 'value': 'Yes'}, {'key': 'Super Charger', 'value': 'No'}]}, {'heading': 'Dimensions &amp; Capacity', 'subHeading': 'Dimensions', 'list': [{'key': 'Length', 'value': '3971mm'}, {'key': 'Width', 'value': '1682mm'}, {'key': 'Height', 'value': '1469mm'}, {'key': 'Wheel Base', 'value': '2470mm'}, {'key': 'Front Tread', 'value': '1457mm'}, {'key': 'Rear Tread', 'value': '1500mm'}, {'key': 'Kerb Weight', 'value': '1106'}, {'key': 'Gross Weight', 'value': '1570'}]}, {'heading': 'Miscellaneous', 'subHeading': 'Miscellaneous', 'list': [{'key': 'Gear Box', 'value': '6 Speed'}, {'key': 'Drive Type', 'value': 'FWD'}, {'key': 'Seating Capacity', 'value': '5'}, {'key': 'Steering Type', 'value': 'Electronic'}, {'key': 'Turning Radius', 'value': '4.9'}, {'key': 'Front Brake Type', 'value': 'Disc'}, {'key': 'Rear Brake Type', 'value': 'Drum'}, {'key': 'Tyre Type', 'value': 'Tubeless,Radial'}, {'key': 'Alloy Wheel Size', 'value': 'R16'}, {'key': 'No Door Numbers', 'value': '5'}, {'key': 'Cargo Volumn', 'value': '280'}]}], 'commonIcon': ''}", 'car_links': 'https://www.cardekho.com/used-car-details/used-Volkswagen-Polo-1.0-Tsi-Highline-Plus-At-cars-Hyderabad_c1c5c744-98ac-4ff3-8534-8d53642e5f93.htm'}</t>
+          <t>{'new_car_detail': "{'it': 0, 'ft': 'Diesel', 'bt': 'SUV', 'km': '10,000', 'transmission': 'Automatic', 'ownerNo': 1, 'owner': '1st Owner', 'oem': 'Kia', 'model': 'Kia Seltos', 'modelYear': 2022, 'centralVariantId': 7121, 'variantName': 'GTX Plus Diesel AT', 'price': '₹ 19 Lakh', 'priceActual': '', 'priceSaving': '', 'priceFixedText': None, 'trendingText': {'imgUrl': 'https://stimg.cardekho.com/used-cars/common/icons/trending.svg', 'heading': 'Trending Car!', 'desc': 'High chances of sale in next 6 days'}}", 'new_car_overview': "{'heading': 'Car overview', 'top': [{'key': 'Registration Year', 'value': '2022', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg'}, {'key': 'Insurance Validity', 'value': 'Third Party insurance', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg'}, {'key': 'Fuel Type', 'value': 'Diesel', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg'}, {'key': 'Seats', 'value': '5 Seats', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg'}, {'key': 'Kms Driven', 'value': '10,000 Kms', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg'}, {'key': 'Ownership', 'value': 'First Owner', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg'}, {'key': 'Engine Displacement', 'value': '1493 cc', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg'}, {'key': 'Transmission', 'value': 'Automatic', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg'}, {'key': 'Year of Manufacture', 'value': 2022, 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg'}], 'bottomData': None}", 'new_car_feature': "{'heading': 'Features', 'top': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Anti Lock Braking System'}, {'value': 'Brake Assist'}, {'value': 'Radio'}], 'data': [{'heading': 'Comfort &amp; Convenience', 'subHeading': 'Comfort', 'list': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Power Windows Rear'}, {'value': 'Air Quality Control'}, {'value': 'Low Fuel Warning Light'}, {'value': 'Accessory Power Outlet'}, {'value': 'Trunk Light'}, {'value': 'Rear Reading Lamp'}, {'value': 'Rear Seat Headrest'}, {'value': 'Rear Seat Centre Arm Rest'}, {'value': 'Height Adjustable Front Seat Belts'}, {'value': 'Cup Holders Rear'}, {'value': 'Seat Lumbar Support'}, {'value': 'Multifunction Steering Wheel'}, {'value': 'Cruise Control'}, {'value': 'Rear ACVents'}, {'value': 'Navigation System'}, {'value': 'Smart Access Card Entry'}, {'value': 'Engine Start Stop Button'}, {'value': 'Voice Control'}, {'value': 'Steering Wheel Gearshift Paddles'}, {'value': 'Drive Modes'}, {'value': 'Remote Engine Start Stop'}, {'value': 'Adjustable Headrest'}]}, {'heading': 'Interior', 'subHeading': 'Interior', 'list': [{'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Steering'}, {'value': 'Digital Odometer'}, {'value': 'Tachometer'}, {'value': 'Electronic Multi Tripmeter'}, {'value': 'Leather Seats'}, {'value': 'Leather Steering Wheel'}, {'value': 'Glove Compartment'}, {'value': 'Digital Clock'}, {'value': 'Driving Experience Control Eco'}, {'value': 'Height Adjustable Driver Seat'}, {'value': 'Ventilated Seats'}, {'value': 'Leather Wrap Gear Shift Selector'}]}, {'heading': 'Exterior', 'subHeading': 'Exterior', 'list': [{'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Power Adjustable Exterior Rear View Mirror'}, {'value': 'Electric Folding Rear View Mirror'}, {'value': 'Rain Sensing Wiper'}, {'value': 'Rear Window Wiper'}, {'value': 'Rear Window Washer'}, {'value': 'Rear Window Defogger'}, {'value': 'Alloy Wheels'}, {'value': 'Integrated Antenna'}, {'value': 'Rear Spoiler'}, {'value': 'Sun Roof'}, {'value': 'Moon Roof'}, {'value': 'Outside Rear View Mirror Turn Indicators'}, {'value': 'Chrome Garnish'}, {'value': 'Roof Rail'}, {'value': 'LEDDRLs'}, {'value': 'LEDHeadlights'}, {'value': 'LEDTaillights'}, {'value': 'LEDFog Lamps'}]}, {'heading': 'Safety', 'subHeading': 'Safety', 'list': [{'value': 'Anti Lock Braking System'}, {'value': 'Brake Assist'}, {'value': 'Centeral Locking'}, {'value': 'Power Door Locks'}, {'value': 'Child Safety Locks'}, {'value': 'Driver Air Bag'}, {'value': 'Passenger Air Bag'}, {'value': 'Side Air Bag Front'}, {'value': 'Day Night Rear View Mirror'}, {'value': 'Passenger Side Rear View Mirror'}, {'value': 'Rear Seat Belts'}, {'value': 'Seat Belt Warning'}, {'value': 'Vehicle Stability Control System'}, {'value': 'Traction Control'}, {'value': 'Adjustable Seats'}, {'value': 'Keyless Entry'}, {'value': 'Engine Immobilizer'}, {'value': 'Engine Check Warning'}, {'value': 'Tyre Pressure Monitor'}, {'value': 'Crash Sensor'}, {'value': 'Automatic Head Lamps'}, {'value': 'Ebd'}, {'value': 'Follow Me Home Headlamps'}, {'value': 'Rear Camera'}, {'value': 'Anti Pinch Power Windows'}, {'value': 'Speed Sensing Auto Door Lock'}, {'value': 'Isofix Child Seat Mounts'}, {'value': 'Heads Up Display'}, {'value': 'Pretensioners And Force Limiter Seatbelts'}, {'value': 'Blind Spot Monitor'}, {'value': 'Hill Assist'}, {'value': 'View360Camera'}, {'value': 'No Of Airbags'}, {'value': 'Eletronic Stability Control'}]}, {'heading': 'Entertainment &amp; Communication', 'subHeading': 'Entertainment', 'list': [{'value': 'Radio'}, {'value': 'Speakers Front'}, {'value': 'Speakers Rear'}, {'value': 'Integrated2Din Audio'}, {'value': 'Bluetooth'}, {'value': 'Touch Screen'}, {'value': 'Number Of Speaker'}, {'value': 'Touch Screen Size'}, {'value': 'Apple Car Play'}, {'value': 'Android Auto'}, {'value': 'Wireless Phone Charging'}]}], 'commonIcon': 'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg'}", 'new_car_specs': "{'heading': 'Specifications', 'top': [{'key': 'Mileage', 'value': '18 kmpl'}, {'key': 'Engine', 'value': '1493 CC'}, {'key': 'Max Power', 'value': '113.43bhp'}, {'key': 'Torque', 'value': '250Nm'}, {'key': 'Wheel Size', 'value': '17'}, {'key': 'Seats', 'value': '5'}], 'data': [{'heading': 'Engine and Transmission', 'subHeading': 'Engine', 'list': [{'key': 'Color', 'value': 'Gray'}, {'key': 'Engine Type', 'value': '1.5 L CRDi VGT'}, {'key': 'Displacement', 'value': '1493'}, {'key': 'Max Power', 'value': '113.43bhp@4000rpm'}, {'key': 'Max Torque', 'value': '250Nm@1500-2750rpm'}, {'key': 'No of Cylinder', 'value': 4}, {'key': 'Values per Cylinder', 'value': 4}, {'key': 'Fuel Suppy System', 'value': 'CRDi'}, {'key': 'Turbo Charger', 'value': 'Yes'}]}, {'heading': 'Dimensions &amp; Capacity', 'subHeading': 'Dimensions', 'list': [{'key': 'Length', 'value': '4315mm'}, {'key': 'Width', 'value': '1800mm'}, {'key': 'Height', 'value': '1645mm'}, {'key': 'Wheel Base', 'value': '2610mm'}, {'key': 'Kerb Weight', 'value': '1540'}]}, {'heading': 'Miscellaneous', 'subHeading': 'Miscellaneous', 'list': [{'key': 'Gear Box', 'value': '6-Speed'}, {'key': 'Drive Type', 'value': 'FWD'}, {'key': 'Seating Capacity', 'value': '5'}, {'key': 'Steering Type', 'value': 'Electric'}, {'key': 'Front Brake Type', 'value': 'Disc'}, {'key': 'Rear Brake Type', 'value': 'Disc'}, {'key': 'Tyre Type', 'value': 'Tubeless, Radial'}, {'key': 'Alloy Wheel Size', 'value': '17'}, {'key': 'No Door Numbers', 'value': '5'}, {'key': 'Cargo Volumn', 'value': '433'}]}], 'commonIcon': ''}", 'car_links': 'https://www.cardekho.com/used-car-details/used-Kia-Seltos-Gtx-Plus-Diesel-At-cars-Gurgaon_d4aa1aa7-0fbb-4da0-8aad-4644c5a32df8.htm'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaipur_cars</t>
+          <t>hyderabad_cars</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -615,11 +615,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.4 MB</t>
+          <t>0.55 MB</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1120</v>
+        <v>1483</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -631,14 +631,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'new_car_detail': "{'it': 0, 'ft': 'Diesel', 'bt': 'Hatchback', 'km': '1,20,000', 'transmission': 'Manual', 'ownerNo': 2, 'owner': '2nd Owner', 'oem': 'Hyundai', 'model': 'Hyundai i20', 'modelYear': 2015, 'centralVariantId': 1487, 'variantName': 'Asta 1.4 CRDi', 'price': '₹ 5.10 Lakh', 'priceActual': '', 'priceSaving': '', 'priceFixedText': None, 'trendingText': {'imgUrl': 'https://stimg.cardekho.com/used-cars/common/icons/trending.svg', 'heading': 'Trending Car!', 'desc': 'High chances of sale in next 6 days'}}", 'new_car_overview': "{'heading': 'Car overview', 'top': [{'key': 'Registration Year', 'value': '2015', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg'}, {'key': 'Insurance Validity', 'value': 'Third Party insurance', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg'}, {'key': 'Fuel Type', 'value': 'Diesel', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg'}, {'key': 'Seats', 'value': '5 Seats', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg'}, {'key': 'Kms Driven', 'value': '1,20,000 Kms', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg'}, {'key': 'RTO', 'value': 'RJ13', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/rto.svg'}, {'key': 'Ownership', 'value': 'Second Owner', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg'}, {'key': 'Engine Displacement', 'value': '1396 cc', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg'}, {'key': 'Transmission', 'value': 'Manual', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg'}, {'key': 'Year of Manufacture', 'value': 2015, 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg'}], 'bottomData': None}", 'new_car_feature': "{'heading': 'Features', 'top': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Cd Player'}], 'data': [{'heading': 'Comfort &amp; Convenience', 'subHeading': 'Comfort', 'list': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Power Windows Rear'}, {'value': 'Air Quality Control'}, {'value': 'Remote Trunk Opener'}, {'value': 'Remote Fuel Lid Opener'}, {'value': 'Low Fuel Warning Light'}, {'value': 'Accessory Power Outlet'}, {'value': 'Trunk Light'}, {'value': 'Vanity Mirror'}, {'value': 'Rear Seat Headrest'}, {'value': 'Cup Holders Front'}, {'value': 'Multifunction Steering Wheel'}, {'value': 'Rear ACVents'}, {'value': 'Smart Access Card Entry'}, {'value': 'Engine Start Stop Button'}, {'value': 'Glove Box Cooling'}]}, {'heading': 'Interior', 'subHeading': 'Interior', 'list': [{'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Steering'}, {'value': 'Digital Odometer'}, {'value': 'Tachometer'}, {'value': 'Electronic Multi Tripmeter'}, {'value': 'Fabric Upholstery'}, {'value': 'Leather Steering Wheel'}, {'value': 'Glove Compartment'}, {'value': 'Digital Clock'}, {'value': 'Height Adjustable Driver Seat'}]}, {'heading': 'Exterior', 'subHeading': 'Exterior', 'list': [{'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Power Adjustable Exterior Rear View Mirror'}, {'value': 'Electric Folding Rear View Mirror'}, {'value': 'Rear Window Wiper'}, {'value': 'Rear Window Washer'}, {'value': 'Rear Window Defogger'}, {'value': 'Alloy Wheels'}, {'value': 'Power Antenna'}, {'value': 'Rear Spoiler'}, {'value': 'Outside Rear View Mirror Turn Indicators'}, {'value': 'Chrome Grille'}]}, {'heading': 'Safety', 'subHeading': 'Safety', 'list': [{'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Power Door Locks'}, {'value': 'Child Safety Locks'}, {'value': 'Driver Air Bag'}, {'value': 'Passenger Air Bag'}, {'value': 'Day Night Rear View Mirror'}, {'value': 'Passenger Side Rear View Mirror'}, {'value': 'Halogen Headlamps'}, {'value': 'Rear Seat Belts'}, {'value': 'Seat Belt Warning'}, {'value': 'Door Ajar Warning'}, {'value': 'Side Impact Beams'}, {'value': 'Front Impact Beams'}, {'value': 'Adjustable Seats'}, {'value': 'Keyless Entry'}, {'value': 'Centrally Mounted Fuel Tank'}, {'value': 'Engine Immobilizer'}, {'value': 'Crash Sensor'}, {'value': 'Automatic Head Lamps'}, {'value': 'Clutch Lock'}, {'value': 'Follow Me Home Headlamps'}, {'value': 'Rear Camera'}, {'value': 'Anti Theft Device'}]}, {'heading': 'Entertainment &amp; Communication', 'subHeading': 'Entertainment', 'list': [{'value': 'Cd Player'}, {'value': 'Radio'}, {'value': 'Speakers Front'}, {'value': 'Speakers Rear'}, {'value': 'Integrated2Din Audio'}, {'value': 'Usb Auxiliary Input'}, {'value': 'Bluetooth'}]}], 'commonIcon': 'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg'}", 'new_car_specs': "{'heading': 'Specifications', 'top': [{'key': 'Mileage', 'value': '22.54 kmpl'}, {'key': 'Engine', 'value': '1396 CC'}, {'key': 'Max Power', 'value': '88.73bhp'}, {'key': 'Torque', 'value': '219.7Nm'}, {'key': 'Wheel Size', 'value': '16'}, {'key': 'Seats', 'value': '5'}], 'data': [{'heading': 'Engine and Transmission', 'subHeading': 'Engine', 'list': [{'key': 'Color', 'value': 'Others'}, {'key': 'Engine Type', 'value': 'U2 CRDI Diesel Engine'}, {'key': 'Displacement', 'value': '1396'}, {'key': 'Max Power', 'value': '88.73bhp@4000rpm'}, {'key': 'Max Torque', 'value': '219.7Nm@1500-2750rpm'}, {'key': 'No of Cylinder', 'value': 4}, {'key': 'Values per Cylinder', 'value': 4}, {'key': 'Value Configuration', 'value': 'DOHC'}, {'key': 'Fuel Suppy System', 'value': 'CRDI'}, {'key': 'Turbo Charger', 'value': 'Yes'}, {'key': 'Super Charger', 'value': 'No'}]}, {'heading': 'Dimensions &amp; Capacity', 'subHeading': 'Dimensions', 'list': [{'key': 'Length', 'value': '3985mm'}, {'key': 'Width', 'value': '1734mm'}, {'key': 'Height', 'value': '1505mm'}, {'key': 'Wheel Base', 'value': '2570mm'}, {'key': 'Front Tread', 'value': '1505mm'}, {'key': 'Rear Tread', 'value': '1503mm'}, {'key': 'Kerb Weight', 'value': '1515kg'}]}, {'heading': 'Miscellaneous', 'subHeading': 'Miscellaneous', 'list': [{'key': 'Gear Box', 'value': '6 Speed'}, {'key': 'Drive Type', 'value': 'FWD'}, {'key': 'Seating Capacity', 'value': '5'}, {'key': 'Steering Type', 'value': 'Power'}, {'key': 'Turning Radius', 'value': '5.2 metres'}, {'key': 'Front Brake Type', 'value': 'Disc'}, {'key': 'Rear Brake Type', 'value': 'Drum'}, {'key': 'Top Speed', 'value': '180 Kmph'}, {'key': 'Acceleration', 'value': '11.9 Seconds'}, {'key': 'Tyre Type', 'value': 'Tubeless'}, {'key': 'Alloy Wheel Size', 'value': '16'}, {'key': 'No Door Numbers', 'value': '5'}, {'key': 'Cargo Volumn', 'value': '295-litres'}]}], 'commonIcon': ''}", 'car_links': 'https://www.cardekho.com/used-car-details/used-Hyundai-I20-Asta-1.4-Crdi-cars-Jaipur_45904042-2f81-4956-9ccb-3808e9de44d7.htm'}</t>
+          <t>{'new_car_detail': "{'it': 0, 'ft': 'Petrol', 'bt': 'Hatchback', 'km': '20,000', 'transmission': 'Automatic', 'ownerNo': 1, 'owner': '1st Owner', 'oem': 'Volkswagen', 'model': 'Volkswagen Polo', 'modelYear': 2022, 'centralVariantId': 7746, 'variantName': '1.0 TSI Highline Plus AT', 'price': '₹ 10.44 Lakh', 'priceActual': '', 'priceSaving': '', 'priceFixedText': None, 'trendingText': {'imgUrl': 'https://stimg.cardekho.com/used-cars/common/icons/trending.svg', 'heading': 'Trending Car!', 'desc': 'High chances of sale in next 6 days'}}", 'new_car_overview': "{'heading': 'Car overview', 'top': [{'key': 'Registration Year', 'value': '2022', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg'}, {'key': 'Insurance Validity', 'value': 'Third Party insurance', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg'}, {'key': 'Fuel Type', 'value': 'Petrol', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg'}, {'key': 'Seats', 'value': '5 Seats', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg'}, {'key': 'Kms Driven', 'value': '20,000 Kms', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg'}, {'key': 'RTO', 'value': 'TS04', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/rto.svg'}, {'key': 'Ownership', 'value': 'First Owner', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg'}, {'key': 'Engine Displacement', 'value': '999 cc', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg'}, {'key': 'Transmission', 'value': 'Automatic', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg'}, {'key': 'Year of Manufacture', 'value': 2022, 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg'}], 'bottomData': None}", 'new_car_feature': "{'heading': 'Features', 'top': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Radio'}], 'data': [{'heading': 'Comfort &amp; Convenience', 'subHeading': 'Comfort', 'list': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Power Windows Rear'}, {'value': 'Remote Trunk Opener'}, {'value': 'Low Fuel Warning Light'}, {'value': 'Accessory Power Outlet'}, {'value': 'Vanity Mirror'}, {'value': 'Rear Seat Headrest'}, {'value': 'Cup Holders Front'}, {'value': 'Seat Lumbar Support'}, {'value': 'Multifunction Steering Wheel'}, {'value': 'Cruise Control'}, {'value': 'Rear ACVents'}, {'value': 'Glove Box Cooling'}, {'value': 'Voice Control'}, {'value': 'Gear Shift Indicator'}, {'value': 'Lane Change Indicator'}, {'value': 'Adjustable Headrest'}]}, {'heading': 'Interior', 'subHeading': 'Interior', 'list': [{'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Steering'}, {'value': 'Digital Odometer'}, {'value': 'Tachometer'}, {'value': 'Electronic Multi Tripmeter'}, {'value': 'Fabric Upholstery'}, {'value': 'Leather Steering Wheel'}, {'value': 'Glove Compartment'}, {'value': 'Digital Clock'}, {'value': 'Height Adjustable Driver Seat'}, {'value': 'Dual Tone Dashboard'}, {'value': 'Leather Wrap Gear Shift Selector'}]}, {'heading': 'Exterior', 'subHeading': 'Exterior', 'list': [{'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Fog Lights Rear'}, {'value': 'Power Adjustable Exterior Rear View Mirror'}, {'value': 'Electric Folding Rear View Mirror'}, {'value': 'Rain Sensing Wiper'}, {'value': 'Rear Window Wiper'}, {'value': 'Rear Window Washer'}, {'value': 'Rear Window Defogger'}, {'value': 'Alloy Wheels'}, {'value': 'Power Antenna'}, {'value': 'Integrated Antenna'}, {'value': 'Outside Rear View Mirror Turn Indicators'}, {'value': 'Cornering Headlamps'}, {'value': 'Halogen Headlamps'}]}, {'heading': 'Safety', 'subHeading': 'Safety', 'list': [{'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Power Door Locks'}, {'value': 'Child Safety Locks'}, {'value': 'Driver Air Bag'}, {'value': 'Passenger Air Bag'}, {'value': 'Day Night Rear View Mirror'}, {'value': 'Passenger Side Rear View Mirror'}, {'value': 'Halogen Headlamps'}, {'value': 'Rear Seat Belts'}, {'value': 'Seat Belt Warning'}, {'value': 'Side Impact Beams'}, {'value': 'Front Impact Beams'}, {'value': 'Vehicle Stability Control System'}, {'value': 'Adjustable Seats'}, {'value': 'Keyless Entry'}, {'value': 'Centrally Mounted Fuel Tank'}, {'value': 'Engine Immobilizer'}, {'value': 'Engine Check Warning'}, {'value': 'Crash Sensor'}, {'value': 'Ebd'}, {'value': 'Anti Theft Device'}, {'value': 'Anti Pinch Power Windows'}, {'value': 'Speed Sensing Auto Door Lock'}, {'value': 'Isofix Child Seat Mounts'}, {'value': 'Pretensioners And Force Limiter Seatbelts'}, {'value': 'Hill Assist'}, {'value': 'Impact Sensing Auto Door Lock'}, {'value': 'No Of Airbags'}, {'value': 'Eletronic Stability Control'}]}, {'heading': 'Entertainment &amp; Communication', 'subHeading': 'Entertainment', 'list': [{'value': 'Radio'}, {'value': 'Speakers Front'}, {'value': 'Speakers Rear'}, {'value': 'Usb Auxiliary Input'}, {'value': 'Bluetooth'}, {'value': 'Touch Screen'}, {'value': 'Number Of Speaker'}, {'value': 'Apple Car Play'}, {'value': 'Android Auto'}, {'value': 'Mirror Link'}]}], 'commonIcon': 'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg'}", 'new_car_specs': "{'heading': 'Specifications', 'top': [{'key': 'Mileage', 'value': '16.47 kmpl'}, {'key': 'Engine', 'value': '999 CC'}, {'key': 'Max Power', 'value': '108.62bhp'}, {'key': 'Torque', 'value': '175nm'}, {'key': 'Wheel Size', 'value': 'R16'}, {'key': 'Seats', 'value': '5'}], 'data': [{'heading': 'Engine and Transmission', 'subHeading': 'Engine', 'list': [{'key': 'Color', 'value': 'Others'}, {'key': 'Engine Type', 'value': '1.0L TSI Petrol'}, {'key': 'Displacement', 'value': '999'}, {'key': 'Max Power', 'value': '108.62bhp@5000-5500rpm'}, {'key': 'Max Torque', 'value': '175nm@1750-4000rpm'}, {'key': 'No of Cylinder', 'value': 3}, {'key': 'Values per Cylinder', 'value': 4}, {'key': 'Value Configuration', 'value': 'DOHC'}, {'key': 'Fuel Suppy System', 'value': 'TSI'}, {'key': 'BoreX Stroke', 'value': '74.5x76.4 mm'}, {'key': 'Compression Ratio', 'value': '10.5:1'}, {'key': 'Turbo Charger', 'value': 'Yes'}, {'key': 'Super Charger', 'value': 'No'}]}, {'heading': 'Dimensions &amp; Capacity', 'subHeading': 'Dimensions', 'list': [{'key': 'Length', 'value': '3971mm'}, {'key': 'Width', 'value': '1682mm'}, {'key': 'Height', 'value': '1469mm'}, {'key': 'Wheel Base', 'value': '2470mm'}, {'key': 'Front Tread', 'value': '1457mm'}, {'key': 'Rear Tread', 'value': '1500mm'}, {'key': 'Kerb Weight', 'value': '1106'}, {'key': 'Gross Weight', 'value': '1570'}]}, {'heading': 'Miscellaneous', 'subHeading': 'Miscellaneous', 'list': [{'key': 'Gear Box', 'value': '6 Speed'}, {'key': 'Drive Type', 'value': 'FWD'}, {'key': 'Seating Capacity', 'value': '5'}, {'key': 'Steering Type', 'value': 'Electronic'}, {'key': 'Turning Radius', 'value': '4.9'}, {'key': 'Front Brake Type', 'value': 'Disc'}, {'key': 'Rear Brake Type', 'value': 'Drum'}, {'key': 'Tyre Type', 'value': 'Tubeless,Radial'}, {'key': 'Alloy Wheel Size', 'value': 'R16'}, {'key': 'No Door Numbers', 'value': '5'}, {'key': 'Cargo Volumn', 'value': '280'}]}], 'commonIcon': ''}", 'car_links': 'https://www.cardekho.com/used-car-details/used-Volkswagen-Polo-1.0-Tsi-Highline-Plus-At-cars-Hyderabad_c1c5c744-98ac-4ff3-8534-8d53642e5f93.htm'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kolkata_cars</t>
+          <t>jaipur_cars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -648,11 +648,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.51 MB</t>
+          <t>0.4 MB</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1381</v>
+        <v>1120</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -663,6 +663,39 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>{'new_car_detail': "{'it': 0, 'ft': 'Diesel', 'bt': 'Hatchback', 'km': '1,20,000', 'transmission': 'Manual', 'ownerNo': 2, 'owner': '2nd Owner', 'oem': 'Hyundai', 'model': 'Hyundai i20', 'modelYear': 2015, 'centralVariantId': 1487, 'variantName': 'Asta 1.4 CRDi', 'price': '₹ 5.10 Lakh', 'priceActual': '', 'priceSaving': '', 'priceFixedText': None, 'trendingText': {'imgUrl': 'https://stimg.cardekho.com/used-cars/common/icons/trending.svg', 'heading': 'Trending Car!', 'desc': 'High chances of sale in next 6 days'}}", 'new_car_overview': "{'heading': 'Car overview', 'top': [{'key': 'Registration Year', 'value': '2015', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg'}, {'key': 'Insurance Validity', 'value': 'Third Party insurance', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg'}, {'key': 'Fuel Type', 'value': 'Diesel', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg'}, {'key': 'Seats', 'value': '5 Seats', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg'}, {'key': 'Kms Driven', 'value': '1,20,000 Kms', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg'}, {'key': 'RTO', 'value': 'RJ13', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/rto.svg'}, {'key': 'Ownership', 'value': 'Second Owner', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg'}, {'key': 'Engine Displacement', 'value': '1396 cc', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg'}, {'key': 'Transmission', 'value': 'Manual', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg'}, {'key': 'Year of Manufacture', 'value': 2015, 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg'}], 'bottomData': None}", 'new_car_feature': "{'heading': 'Features', 'top': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Cd Player'}], 'data': [{'heading': 'Comfort &amp; Convenience', 'subHeading': 'Comfort', 'list': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Power Windows Rear'}, {'value': 'Air Quality Control'}, {'value': 'Remote Trunk Opener'}, {'value': 'Remote Fuel Lid Opener'}, {'value': 'Low Fuel Warning Light'}, {'value': 'Accessory Power Outlet'}, {'value': 'Trunk Light'}, {'value': 'Vanity Mirror'}, {'value': 'Rear Seat Headrest'}, {'value': 'Cup Holders Front'}, {'value': 'Multifunction Steering Wheel'}, {'value': 'Rear ACVents'}, {'value': 'Smart Access Card Entry'}, {'value': 'Engine Start Stop Button'}, {'value': 'Glove Box Cooling'}]}, {'heading': 'Interior', 'subHeading': 'Interior', 'list': [{'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Steering'}, {'value': 'Digital Odometer'}, {'value': 'Tachometer'}, {'value': 'Electronic Multi Tripmeter'}, {'value': 'Fabric Upholstery'}, {'value': 'Leather Steering Wheel'}, {'value': 'Glove Compartment'}, {'value': 'Digital Clock'}, {'value': 'Height Adjustable Driver Seat'}]}, {'heading': 'Exterior', 'subHeading': 'Exterior', 'list': [{'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Power Adjustable Exterior Rear View Mirror'}, {'value': 'Electric Folding Rear View Mirror'}, {'value': 'Rear Window Wiper'}, {'value': 'Rear Window Washer'}, {'value': 'Rear Window Defogger'}, {'value': 'Alloy Wheels'}, {'value': 'Power Antenna'}, {'value': 'Rear Spoiler'}, {'value': 'Outside Rear View Mirror Turn Indicators'}, {'value': 'Chrome Grille'}]}, {'heading': 'Safety', 'subHeading': 'Safety', 'list': [{'value': 'Anti Lock Braking System'}, {'value': 'Centeral Locking'}, {'value': 'Power Door Locks'}, {'value': 'Child Safety Locks'}, {'value': 'Driver Air Bag'}, {'value': 'Passenger Air Bag'}, {'value': 'Day Night Rear View Mirror'}, {'value': 'Passenger Side Rear View Mirror'}, {'value': 'Halogen Headlamps'}, {'value': 'Rear Seat Belts'}, {'value': 'Seat Belt Warning'}, {'value': 'Door Ajar Warning'}, {'value': 'Side Impact Beams'}, {'value': 'Front Impact Beams'}, {'value': 'Adjustable Seats'}, {'value': 'Keyless Entry'}, {'value': 'Centrally Mounted Fuel Tank'}, {'value': 'Engine Immobilizer'}, {'value': 'Crash Sensor'}, {'value': 'Automatic Head Lamps'}, {'value': 'Clutch Lock'}, {'value': 'Follow Me Home Headlamps'}, {'value': 'Rear Camera'}, {'value': 'Anti Theft Device'}]}, {'heading': 'Entertainment &amp; Communication', 'subHeading': 'Entertainment', 'list': [{'value': 'Cd Player'}, {'value': 'Radio'}, {'value': 'Speakers Front'}, {'value': 'Speakers Rear'}, {'value': 'Integrated2Din Audio'}, {'value': 'Usb Auxiliary Input'}, {'value': 'Bluetooth'}]}], 'commonIcon': 'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg'}", 'new_car_specs': "{'heading': 'Specifications', 'top': [{'key': 'Mileage', 'value': '22.54 kmpl'}, {'key': 'Engine', 'value': '1396 CC'}, {'key': 'Max Power', 'value': '88.73bhp'}, {'key': 'Torque', 'value': '219.7Nm'}, {'key': 'Wheel Size', 'value': '16'}, {'key': 'Seats', 'value': '5'}], 'data': [{'heading': 'Engine and Transmission', 'subHeading': 'Engine', 'list': [{'key': 'Color', 'value': 'Others'}, {'key': 'Engine Type', 'value': 'U2 CRDI Diesel Engine'}, {'key': 'Displacement', 'value': '1396'}, {'key': 'Max Power', 'value': '88.73bhp@4000rpm'}, {'key': 'Max Torque', 'value': '219.7Nm@1500-2750rpm'}, {'key': 'No of Cylinder', 'value': 4}, {'key': 'Values per Cylinder', 'value': 4}, {'key': 'Value Configuration', 'value': 'DOHC'}, {'key': 'Fuel Suppy System', 'value': 'CRDI'}, {'key': 'Turbo Charger', 'value': 'Yes'}, {'key': 'Super Charger', 'value': 'No'}]}, {'heading': 'Dimensions &amp; Capacity', 'subHeading': 'Dimensions', 'list': [{'key': 'Length', 'value': '3985mm'}, {'key': 'Width', 'value': '1734mm'}, {'key': 'Height', 'value': '1505mm'}, {'key': 'Wheel Base', 'value': '2570mm'}, {'key': 'Front Tread', 'value': '1505mm'}, {'key': 'Rear Tread', 'value': '1503mm'}, {'key': 'Kerb Weight', 'value': '1515kg'}]}, {'heading': 'Miscellaneous', 'subHeading': 'Miscellaneous', 'list': [{'key': 'Gear Box', 'value': '6 Speed'}, {'key': 'Drive Type', 'value': 'FWD'}, {'key': 'Seating Capacity', 'value': '5'}, {'key': 'Steering Type', 'value': 'Power'}, {'key': 'Turning Radius', 'value': '5.2 metres'}, {'key': 'Front Brake Type', 'value': 'Disc'}, {'key': 'Rear Brake Type', 'value': 'Drum'}, {'key': 'Top Speed', 'value': '180 Kmph'}, {'key': 'Acceleration', 'value': '11.9 Seconds'}, {'key': 'Tyre Type', 'value': 'Tubeless'}, {'key': 'Alloy Wheel Size', 'value': '16'}, {'key': 'No Door Numbers', 'value': '5'}, {'key': 'Cargo Volumn', 'value': '295-litres'}]}], 'commonIcon': ''}", 'car_links': 'https://www.cardekho.com/used-car-details/used-Hyundai-I20-Asta-1.4-Crdi-cars-Jaipur_45904042-2f81-4956-9ccb-3808e9de44d7.htm'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>kolkata_cars</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Excel (XLSX)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.51 MB</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['new_car_detail', 'new_car_overview', 'new_car_feature', 'new_car_specs', 'car_links']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>{'new_car_detail': "{'it': 0, 'ft': 'Petrol', 'bt': 'Sedan', 'km': '70,000', 'transmission': 'Automatic', 'ownerNo': 3, 'owner': '3rd Owner', 'oem': 'Toyota', 'model': 'Toyota Camry', 'modelYear': 2014, 'centralVariantId': 2123, 'variantName': 'Hybrid', 'price': '₹ 9.75 Lakh', 'priceActual': '', 'priceSaving': '', 'priceFixedText': None, 'trendingText': {'imgUrl': 'https://stimg.cardekho.com/used-cars/common/icons/trending.svg', 'heading': 'Trending Car!', 'desc': 'High chances of sale in next 6 days'}}", 'new_car_overview': "{'heading': 'Car overview', 'top': [{'key': 'Registration Year', 'value': '2014', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/registrationYear.svg'}, {'key': 'Insurance Validity', 'value': 'Third Party insurance', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/insuranceValidity.svg'}, {'key': 'Fuel Type', 'value': 'Petrol', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/fuel.svg'}, {'key': 'Seats', 'value': '5 Seats', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/seats.svg'}, {'key': 'Kms Driven', 'value': '70,000 Kms', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/kmsDriven.svg'}, {'key': 'RTO', 'value': 'WB02', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/rto.svg'}, {'key': 'Ownership', 'value': 'Third Owner', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/ownership.svg'}, {'key': 'Engine Displacement', 'value': '2494 cc', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/engineDisplacement.svg'}, {'key': 'Transmission', 'value': 'Automatic', 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/transmission.svg'}, {'key': 'Year of Manufacture', 'value': 2014, 'icon': 'https://images10.gaadi.com/listing/vdp/co/v1/yearManufacture.svg'}], 'bottomData': None}", 'new_car_feature': "{'heading': 'Features', 'top': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Anti Lock Braking System'}, {'value': 'Brake Assist'}, {'value': 'Cd Player'}], 'data': [{'heading': 'Comfort &amp; Convenience', 'subHeading': 'Comfort', 'list': [{'value': 'Power Steering'}, {'value': 'Power Windows Front'}, {'value': 'Power Windows Rear'}, {'value': 'Air Quality Control'}, {'value': 'Remote Trunk Opener'}, {'value': 'Low Fuel Warning Light'}, {'value': 'Accessory Power Outlet'}, {'value': 'Trunk Light'}, {'value': 'Vanity Mirror'}, {'value': 'Rear Seat Headrest'}, {'value': 'Rear Seat Centre Arm Rest'}, {'value': 'Cup Holders Front'}, {'value': 'Cup Holders Rear'}, {'value': 'Seat Lumbar Support'}, {'value': 'Multifunction Steering Wheel'}, {'value': 'Rear ACVents'}]}, {'heading': 'Interior', 'subHeading': 'Interior', 'list': [{'value': 'Air Conditioner'}, {'value': 'Heater'}, {'value': 'Adjustable Steering'}, {'value': 'Digital Odometer'}, {'value': 'Tachometer'}, {'value': 'Electronic Multi Tripmeter'}, {'value': 'Leather Seats'}, {'value': 'Leather Steering Wheel'}, {'value': 'Glove Compartment'}, {'value': 'Digital Clock'}]}, {'heading': 'Exterior', 'subHeading': 'Exterior', 'list': [{'value': 'Adjustable Head Lights'}, {'value': 'Fog Lights Front'}, {'value': 'Fog Lights Rear'}, {'value': 'Power Adjustable Exterior Rear View Mirror'}, {'value': 'Electric Folding Rear View Mirror'}, {'value': 'Rain Sensing Wiper'}, {'value': 'Rear Window Defogger'}, {'value': 'Alloy Wheels'}, {'value': 'Integrated Antenna'}, {'value': 'Outside Rear View Mirror Turn Indicators'}]}, {'heading': 'Safety', 'subHeading': 'Safety', 'list': [{'value': 'Anti Lock Braking System'}, {'value': 'Brake Assist'}, {'value': 'Centeral Locking'}, {'value': 'Power Door Locks'}, {'value': 'Child Safety Locks'}, {'value': 'Anti Theft Alarm'}, {'value': 'Driver Air Bag'}, {'value': 'Passenger Air Bag'}, {'value': 'Side Air Bag Front'}, {'value': 'Day Night Rear View Mirror'}, {'value': 'Passenger Side Rear View Mirror'}, {'value': 'Halogen Headlamps'}, {'value': 'Rear Seat Belts'}, {'value': 'Seat Belt Warning'}, {'value': 'Door Ajar Warning'}, {'value': 'Side Impact Beams'}, {'value': 'Front Impact Beams'}, {'value': 'Vehicle Stability Control System'}, {'value': 'Traction Control'}, {'value': 'Adjustable Seats'}, {'value': 'Keyless Entry'}, {'value': 'Centrally Mounted Fuel Tank'}, {'value': 'Engine Immobilizer'}, {'value': 'Crash Sensor'}, {'value': 'Ebd'}, {'value': 'Anti Theft Device'}]}, {'heading': 'Entertainment &amp; Communication', 'subHeading': 'Entertainment', 'list': [{'value': 'Cd Player'}, {'value': 'Dvd Player'}, {'value': 'Radio'}, {'value': 'Speakers Front'}, {'value': 'Speakers Rear'}]}], 'commonIcon': 'https://stimg.cardekho.com/pwa/img/vdpN/tickG.svg'}", 'new_car_specs': "{'heading': 'Specifications', 'top': [{'key': 'Mileage', 'value': '19.16 kmpl'}, {'key': 'Engine', 'value': '2494 CC'}, {'key': 'Max Power', 'value': '158.2bhp'}, {'key': 'Torque', 'value': '213Nm'}, {'key': 'Wheel Size', 'value': '17'}, {'key': 'Seats', 'value': '5'}], 'data': [{'heading': 'Engine and Transmission', 'subHeading': 'Engine', 'list': [{'key': 'Color', 'value': 'White'}, {'key': 'Engine Type', 'value': '2AR FXE Petrol Engine '}, {'key': 'Displacement', 'value': '2494'}, {'key': 'Max Power', 'value': '158.2bhp@5700rpm'}, {'key': 'Max Torque', 'value': '213Nm@4500rpm'}, {'key': 'No of Cylinder', 'value': 4}, {'key': 'Values per Cylinder', 'value': 4}, {'key': 'Value Configuration', 'value': 'DOHC'}, {'key': 'Fuel Suppy System', 'value': 'Electronic Fuel Injection(EFI)'}, {'key': 'BoreX Stroke', 'value': '90 X 98 mm'}, {'key': 'Turbo Charger', 'value': 'No'}, {'key': 'Super Charger', 'value': 'No'}]}, {'heading': 'Dimensions &amp; Capacity', 'subHeading': 'Dimensions', 'list': [{'key': 'Length', 'value': '4825mm'}, {'key': 'Width', 'value': '1825mm'}, {'key': 'Height', 'value': '1480mm'}, {'key': 'Wheel Base', 'value': '2775mm'}, {'key': 'Front Tread', 'value': '1580mm'}, {'key': 'Rear Tread', 'value': '1570mm'}, {'key': 'Kerb Weight', 'value': '1625kg'}, {'key': 'Gross Weight', 'value': '2100kg'}]}, {'heading': 'Miscellaneous', 'subHeading': 'Miscellaneous', 'list': [{'key': 'Gear Box', 'value': '6 Speed '}, {'key': 'Drive Type', 'value': 'FWD'}, {'key': 'Seating Capacity', 'value': '5'}, {'key': 'Steering Type', 'value': 'Power'}, {'key': 'Turning Radius', 'value': '5.5 metres'}, {'key': 'Front Brake Type', 'value': 'Ventilated Disc'}, {'key': 'Rear Brake Type', 'value': 'Solid Disc'}, {'key': 'Tyre Type', 'value': 'Tubeless,Radial'}, {'key': 'Alloy Wheel Size', 'value': '17'}, {'key': 'No Door Numbers', 'value': '4'}]}], 'commonIcon': ''}", 'car_links': 'https://www.cardekho.com/used-car-details/used-Toyota-Camry-Hybrid-cars-Kolkata_0ece1255-6096-4708-8666-3d5dab9971b4.htm'}</t>
         </is>
